--- a/src/test/resources/testData/vtigerTestData.xlsx
+++ b/src/test/resources/testData/vtigerTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\practice\java\eclipse-workspace_java1\vtiger1\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\java\java-workspace1\vtiger1\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E43FEDB-F5AA-4704-A064-1CAD60420435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6741C795-9F04-4B29-BD77-895947ED51FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" r:id="rId1"/>
@@ -45,21 +45,9 @@
     <t>Prof.</t>
   </si>
   <si>
-    <t>Shiv</t>
-  </si>
-  <si>
-    <t>Joshi</t>
-  </si>
-  <si>
-    <t>IITD</t>
-  </si>
-  <si>
     <t>OrganizationName</t>
   </si>
   <si>
-    <t>StarAgile</t>
-  </si>
-  <si>
     <t>Campaign Name</t>
   </si>
   <si>
@@ -103,6 +91,18 @@
   </si>
   <si>
     <t>June</t>
+  </si>
+  <si>
+    <t>Qspiders</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>qspiders</t>
   </si>
 </sst>
 </file>
@@ -435,17 +435,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,18 +461,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -483,23 +485,23 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -515,34 +517,34 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="19.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -555,67 +557,67 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="2"/>
+    <col min="3" max="3" width="12.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="2">
-        <v>1992</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
